--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63270.87509976071</v>
+        <v>55108.21568324843</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3036488.258408898</v>
+        <v>3036488.258408899</v>
       </c>
     </row>
     <row r="11">
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30.70785528783248</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796769</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="V8" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>104.8891084057997</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424616</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>65.71804070699463</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>87.60794153263967</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.0839105424611</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="V10" t="n">
-        <v>46.05514816323301</v>
+        <v>46.0551481632332</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>412.6473898085254</v>
       </c>
       <c r="C11" t="n">
-        <v>250.9321946446892</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>163.7152510849626</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>199.1695493420036</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>213.560224219215</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623972</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>5.033780699103638</v>
+        <v>136.908587136772</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>289.0012590013207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>252.4843751595148</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.51516921304759</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>173.8329526519889</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>401.5266111030789</v>
       </c>
       <c r="C20" t="n">
-        <v>400.411078004469</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.2098650266467</v>
+        <v>24.83686707040875</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>214.1605232678769</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>69.36305879325731</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>77.36445997560055</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>77.2631576478591</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>323.8100598306124</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>221.7405882252916</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>91.66975178376411</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>183.6129293777672</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>241.2916446706094</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>29.91896038064817</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.033780699103757</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>167.4490654225681</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>37.69870921092642</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.2086277739016</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>330.5747992913829</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>195.773186921738</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.137920519912</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>176.0448961179416</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>291.1487763564898</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>145.2696803622888</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>11.11730050543477</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>26.54482937423058</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>237.2150796056176</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1695493420044</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.502879298998</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>30.78335892541048</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>323.2115213346348</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -4030,16 +4030,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>298.4956188430021</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>91.95092294110515</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>195.7883996540922</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.526712843396885</v>
+        <v>160.831526813391</v>
       </c>
       <c r="C8" t="n">
-        <v>9.526712843396885</v>
+        <v>160.831526813391</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396885</v>
+        <v>40.54474848767217</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396885</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396885</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396885</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396885</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585571</v>
+        <v>23.57954741585578</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558036</v>
+        <v>55.41632306558057</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318071</v>
+        <v>103.1313969318075</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183097</v>
+        <v>162.3261653183104</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590933</v>
+        <v>228.1917507590944</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326583</v>
+        <v>295.1231102326597</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336427</v>
+        <v>358.3244950336443</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455673</v>
+        <v>412.2654147455693</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245017</v>
+        <v>452.7727990245038</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698442</v>
+        <v>476.3356421698464</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698442</v>
+        <v>401.4050834648285</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698442</v>
+        <v>401.4050834648285</v>
       </c>
       <c r="U8" t="n">
-        <v>356.048863844126</v>
+        <v>281.1183051391097</v>
       </c>
       <c r="V8" t="n">
-        <v>235.7620855184078</v>
+        <v>281.1183051391097</v>
       </c>
       <c r="W8" t="n">
-        <v>115.4753071926895</v>
+        <v>281.1183051391097</v>
       </c>
       <c r="X8" t="n">
-        <v>9.526712843396885</v>
+        <v>281.1183051391097</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.526712843396885</v>
+        <v>160.831526813391</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396885</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396885</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396885</v>
+        <v>272.21128042983</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396885</v>
+        <v>178.0908657567837</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396885</v>
+        <v>94.70702737294532</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396885</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396885</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114685</v>
+        <v>16.43678475114692</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437512</v>
+        <v>35.39855022437528</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369109</v>
+        <v>67.8072276036914</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193805</v>
+        <v>111.384693819381</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767965</v>
+        <v>162.2375414767972</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943334</v>
+        <v>214.4363126943344</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006661</v>
+        <v>262.1879905006674</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025282</v>
+        <v>300.5129218025297</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.1321234335034</v>
+        <v>326.1321234335049</v>
       </c>
       <c r="R9" t="n">
-        <v>338.593139729823</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="S9" t="n">
-        <v>338.593139729823</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="T9" t="n">
-        <v>338.593139729823</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="U9" t="n">
-        <v>250.1002694948334</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="V9" t="n">
-        <v>129.8134911691151</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="W9" t="n">
-        <v>9.526712843396885</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396885</v>
+        <v>338.5931397298245</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396885</v>
+        <v>338.5931397298245</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="C10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="D10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="E10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="F10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="G10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="H10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="I10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="J10" t="n">
-        <v>321.4245144571209</v>
+        <v>21.42271513642522</v>
       </c>
       <c r="K10" t="n">
-        <v>340.9733005320728</v>
+        <v>40.9715012113772</v>
       </c>
       <c r="L10" t="n">
-        <v>365.98901629653</v>
+        <v>65.98721697583454</v>
       </c>
       <c r="M10" t="n">
-        <v>392.3645811079851</v>
+        <v>92.36278178728972</v>
       </c>
       <c r="N10" t="n">
-        <v>418.1129939405098</v>
+        <v>118.1111946198145</v>
       </c>
       <c r="O10" t="n">
-        <v>441.8958206927283</v>
+        <v>141.8940213720331</v>
       </c>
       <c r="P10" t="n">
-        <v>462.2461375895327</v>
+        <v>162.2443382688376</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698442</v>
+        <v>176.3338428491492</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698442</v>
+        <v>176.3338428491492</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698442</v>
+        <v>176.3338428491492</v>
       </c>
       <c r="T10" t="n">
-        <v>356.048863844126</v>
+        <v>176.3338428491492</v>
       </c>
       <c r="U10" t="n">
-        <v>356.048863844126</v>
+        <v>56.04706452343046</v>
       </c>
       <c r="V10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="W10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="X10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
       <c r="Y10" t="n">
-        <v>309.5285121640927</v>
+        <v>9.526712843396927</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C11" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228015</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.32965943808</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y11" t="n">
-        <v>1128.043535737734</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="U13" t="n">
-        <v>2081.94094549648</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.98543736691</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="W13" t="n">
-        <v>1522.959032953202</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.2907825224202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1110.030088953173</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C14" t="n">
-        <v>1110.030088953173</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D14" t="n">
-        <v>1110.030088953173</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>676.2553441114678</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>248.3879145206756</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>248.3879145206756</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
@@ -5281,16 +5281,16 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
         <v>1775.969506973259</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.32965943808</v>
+        <v>1311.151286170962</v>
       </c>
     </row>
     <row r="15">
@@ -5348,13 +5348,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1517.87440598441</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C16" t="n">
-        <v>1517.87440598441</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>1517.87440598441</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U16" t="n">
-        <v>2081.94094549648</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.98543736691</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W16" t="n">
-        <v>1522.959032953202</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X16" t="n">
-        <v>1517.87440598441</v>
+        <v>751.3682208539258</v>
       </c>
       <c r="Y16" t="n">
-        <v>1517.87440598441</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.1270151866524</v>
+        <v>701.7439652528259</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895474</v>
+        <v>701.7439652528259</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>701.7439652528259</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>701.7439652528259</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
         <v>805.440802286702</v>
@@ -5551,16 +5551,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715602</v>
+        <v>1128.043535737734</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.20655154895474</v>
+        <v>377.8257247349136</v>
       </c>
       <c r="C19" t="n">
-        <v>47.20655154895474</v>
+        <v>377.8257247349136</v>
       </c>
       <c r="D19" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5700,25 +5700,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>854.7959157263747</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>612.5486916297813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>334.1620596785243</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>47.20655154895474</v>
+        <v>569.6443434539008</v>
       </c>
       <c r="W19" t="n">
-        <v>47.20655154895474</v>
+        <v>569.6443434539008</v>
       </c>
       <c r="X19" t="n">
-        <v>47.20655154895474</v>
+        <v>569.6443434539008</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.20655154895474</v>
+        <v>569.6443434539008</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673516</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
         <v>716.4307943255671</v>
@@ -5749,25 +5749,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.47212285877</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158423</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2036.901175288691</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C22" t="n">
-        <v>1864.339463771916</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D22" t="n">
-        <v>1864.339463771916</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E22" t="n">
-        <v>1694.581460022654</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F22" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1582.440696732936</v>
+        <v>699.4400972511536</v>
       </c>
       <c r="C23" t="n">
-        <v>1144.298223916359</v>
+        <v>699.4400972511536</v>
       </c>
       <c r="D23" t="n">
-        <v>1144.298223916359</v>
+        <v>263.5303124255981</v>
       </c>
       <c r="E23" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U23" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V23" t="n">
-        <v>1990.726820433283</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W23" t="n">
-        <v>1990.726820433283</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X23" t="n">
-        <v>1990.726820433283</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="Y23" t="n">
-        <v>1582.440696732936</v>
+        <v>699.4400972511536</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.0941331591162</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C25" t="n">
-        <v>584.0941331591162</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D25" t="n">
-        <v>584.0941331591162</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
@@ -6159,40 +6159,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>584.8864215794129</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>702.6523029271747</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>803.4213591048582</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>873.1886303355138</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>889.6597230122812</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122812</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122812</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U25" t="n">
-        <v>889.6597230122812</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V25" t="n">
-        <v>889.6597230122812</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5138038450079</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X25" t="n">
-        <v>811.5138038450079</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.0941331591162</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1682.114422548562</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="C26" t="n">
-        <v>1243.971949731985</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D26" t="n">
-        <v>808.0621649064296</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>374.2874200647248</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W26" t="n">
-        <v>2101.256885969251</v>
+        <v>2136.347185300977</v>
       </c>
       <c r="X26" t="n">
-        <v>1682.114422548562</v>
+        <v>1717.204721880288</v>
       </c>
       <c r="Y26" t="n">
-        <v>1682.114422548562</v>
+        <v>1308.918598179941</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987881</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1848.493579170369</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C28" t="n">
-        <v>1848.493579170369</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>1682.615586371892</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>1682.615586371892</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>1682.615586371892</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>2267.731868575248</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.731868575248</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>2267.731868575248</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V28" t="n">
-        <v>2267.731868575248</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W28" t="n">
-        <v>2267.731868575248</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X28" t="n">
-        <v>2267.731868575248</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y28" t="n">
-        <v>2040.312197889356</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6741569810429</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C29" t="n">
-        <v>232.6741569810429</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D29" t="n">
-        <v>232.6741569810429</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E29" t="n">
-        <v>232.6741569810429</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>232.6741569810429</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586986</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W29" t="n">
-        <v>1486.402314586986</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X29" t="n">
-        <v>1067.259851166297</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="Y29" t="n">
-        <v>658.9737274659507</v>
+        <v>1349.126238781879</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043084</v>
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>717.0980114955063</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>551.220018697029</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
         <v>202.912315818696</v>
@@ -6654,19 +6654,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W31" t="n">
-        <v>52.2911785177464</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895473</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1952.04145374739</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>1513.898980930814</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>1077.989196105258</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>644.2144512635532</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>216.3470216727609</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X32" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1952.04145374739</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.28605580241577</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="C34" t="n">
-        <v>85.28605580241577</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="D34" t="n">
-        <v>85.28605580241577</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E34" t="n">
-        <v>85.28605580241577</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
@@ -6885,25 +6885,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U34" t="n">
-        <v>889.6597230122813</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="V34" t="n">
-        <v>602.7042148827118</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="W34" t="n">
-        <v>330.6778104690033</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="X34" t="n">
-        <v>85.28605580241577</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.28605580241577</v>
+        <v>610.6790150479284</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>908.8487259814518</v>
+        <v>1688.947492710956</v>
       </c>
       <c r="C35" t="n">
-        <v>908.8487259814518</v>
+        <v>1250.80501989438</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>814.8952350688241</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>381.1204902271193</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2162.576883587396</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2162.576883587396</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1743.434420166706</v>
+        <v>1688.947492710956</v>
       </c>
       <c r="Y35" t="n">
-        <v>1335.14829646636</v>
+        <v>1688.947492710956</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7022,10 +7022,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2024.93530163793</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C37" t="n">
-        <v>1852.373590121155</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D37" t="n">
-        <v>1852.373590121155</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E37" t="n">
-        <v>1682.615586371892</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F37" t="n">
-        <v>1682.615586371892</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>2216.753920356917</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>2216.753920356917</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="U37" t="n">
-        <v>2216.753920356917</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="V37" t="n">
-        <v>2216.753920356917</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="W37" t="n">
-        <v>2216.753920356917</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="X37" t="n">
-        <v>2216.753920356917</v>
+        <v>466.4448409538336</v>
       </c>
       <c r="Y37" t="n">
-        <v>2216.753920356917</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1495.863289652878</v>
+        <v>1215.34848227845</v>
       </c>
       <c r="C38" t="n">
-        <v>1057.720816836301</v>
+        <v>777.2060094618737</v>
       </c>
       <c r="D38" t="n">
-        <v>621.8110320107457</v>
+        <v>341.2962246363182</v>
       </c>
       <c r="E38" t="n">
-        <v>621.8110320107457</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F38" t="n">
-        <v>193.9436024199535</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9436024199535</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W38" t="n">
-        <v>1915.005753073567</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X38" t="n">
-        <v>1495.863289652878</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y38" t="n">
-        <v>1495.863289652878</v>
+        <v>1641.648052763358</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2157.279362258614</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="C40" t="n">
-        <v>1984.717650741839</v>
+        <v>345.4286049681161</v>
       </c>
       <c r="D40" t="n">
-        <v>1984.717650741839</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E40" t="n">
-        <v>1814.959646992576</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F40" t="n">
-        <v>1814.959646992576</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>1650.218466605094</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W40" t="n">
-        <v>2360.327577447737</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="X40" t="n">
-        <v>2349.097980977601</v>
+        <v>372.2415639319854</v>
       </c>
       <c r="Y40" t="n">
-        <v>2349.097980977601</v>
+        <v>345.4286049681161</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>908.8487259814518</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C41" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2159.146214476015</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2159.146214476015</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2159.146214476015</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W41" t="n">
-        <v>1754.290759887049</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X41" t="n">
-        <v>1335.14829646636</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1335.14829646636</v>
+        <v>724.9602158863573</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>375.3860945019795</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="C43" t="n">
-        <v>375.3860945019795</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D43" t="n">
-        <v>375.3860945019795</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E43" t="n">
-        <v>375.3860945019795</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511379</v>
@@ -7599,22 +7599,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V43" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W43" t="n">
-        <v>375.3860945019795</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="X43" t="n">
-        <v>375.3860945019795</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="Y43" t="n">
-        <v>375.3860945019795</v>
+        <v>617.6333185985729</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.350481558492</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C44" t="n">
-        <v>1580.208008741915</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="D44" t="n">
-        <v>1144.298223916359</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2018.350481558492</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2018.350481558492</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2018.350481558492</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2018.350481558492</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>554.5327787731575</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="C46" t="n">
-        <v>554.5327787731575</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6547859746801</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>796.7800028697509</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>554.5327787731575</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>554.5327787731575</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V46" t="n">
-        <v>554.5327787731575</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="W46" t="n">
-        <v>554.5327787731575</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="X46" t="n">
-        <v>554.5327787731575</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="Y46" t="n">
-        <v>554.5327787731575</v>
+        <v>691.8936627556226</v>
       </c>
     </row>
   </sheetData>
@@ -23026,10 +23026,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>312.4667764348383</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>398.7291421054553</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796773</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>137.515857400832</v>
+        <v>137.5158574008315</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230507</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006159</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>310.0619303806827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208815</v>
       </c>
     </row>
     <row r="9">
@@ -23105,19 +23105,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>28.42134525791765</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>86.95190266500848</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615958</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167687</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742789</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616405</v>
+        <v>13.56162857616402</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751607</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.5554896577338</v>
       </c>
       <c r="V10" t="n">
-        <v>238.0308048850408</v>
+        <v>238.0308048850407</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>9.389184971533325</v>
       </c>
       <c r="C11" t="n">
-        <v>182.8288534437217</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,7 +23317,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -23469,19 +23469,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>76.10950077066485</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>237.904056420818</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>67.85478659952504</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>190.6430382441281</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23709,16 +23709,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>237.904056420818</v>
+        <v>106.0292499831496</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>144.7597890870902</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>171.1043801353695</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23791,7 +23791,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -23904,7 +23904,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4671038977602</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>110.2530003962849</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>20.50996367697979</v>
       </c>
       <c r="C20" t="n">
-        <v>33.34997008394191</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -24022,13 +24022,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.69056750515057</v>
+        <v>165.0635654613885</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>215.2764741254109</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6277217722544</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -24426,13 +24426,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>191.9416803939708</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>147.8823163311737</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>99.77869546427195</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>179.0663118177854</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>106.1837529440684</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>51.3125213270437</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -24669,7 +24669,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>211.8947350295503</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>173.659394115873</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>138.1414633311219</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24894,16 +24894,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>237.9040564208179</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>228.0585989847495</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806306</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>137.2412742869349</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>142.3941378578428</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>93.01395600350139</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>163.2175936437737</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8443525908957863</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>63.77985573768581</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -25377,10 +25377,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>138.2882210367979</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>121.7546555792399</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.8205366144869</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>198.6006446048022</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>184.8214951744411</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>10.48398967357446</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>113.3332151026093</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.1566245724509</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>100.3772339602496</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>60.49516172250964</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.03135016970267</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>88.29755339418168</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69185.40225968686</v>
+        <v>69185.40225968718</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342573.7911158039</v>
+        <v>342573.7911158041</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>342573.7911158039</v>
+        <v>342573.7911158041</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>342573.791115804</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>342573.791115804</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>342573.791115804</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.791115804</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29650.88668272294</v>
+        <v>29650.88668272307</v>
       </c>
       <c r="E2" t="n">
         <v>146817.3390496303</v>
       </c>
       <c r="F2" t="n">
+        <v>146817.3390496303</v>
+      </c>
+      <c r="G2" t="n">
         <v>146817.3390496302</v>
-      </c>
-      <c r="G2" t="n">
-        <v>146817.3390496303</v>
       </c>
       <c r="H2" t="n">
         <v>146817.3390496303</v>
       </c>
       <c r="I2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="J2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="K2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="L2" t="n">
         <v>146817.3390496302</v>
       </c>
       <c r="M2" t="n">
+        <v>146817.3390496302</v>
+      </c>
+      <c r="N2" t="n">
         <v>146817.3390496303</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>146817.3390496302</v>
-      </c>
-      <c r="O2" t="n">
-        <v>146817.3390496303</v>
       </c>
       <c r="P2" t="n">
         <v>146817.3390496303</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573058</v>
+        <v>117708.4675730585</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180441</v>
+        <v>439858.2450180436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310204</v>
+        <v>30139.06600310215</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.581559748</v>
+        <v>117374.5815597478</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.50572484016318</v>
+        <v>83.50572484016358</v>
       </c>
       <c r="E4" t="n">
         <v>414.2905444231689</v>
@@ -26456,7 +26456,7 @@
         <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
         <v>414.2905444231689</v>
@@ -26475,16 +26475,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.56227239242</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
@@ -26493,25 +26493,25 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-131063.6488875676</v>
+        <v>-132262.8224888049</v>
       </c>
       <c r="E6" t="n">
-        <v>-339506.2777224748</v>
+        <v>-340147.5158362496</v>
       </c>
       <c r="F6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="G6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179385</v>
       </c>
       <c r="H6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="I6" t="n">
-        <v>100351.9672955694</v>
+        <v>99710.72918179385</v>
       </c>
       <c r="J6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179388</v>
       </c>
       <c r="K6" t="n">
-        <v>100351.9672955694</v>
+        <v>99710.72918179382</v>
       </c>
       <c r="L6" t="n">
-        <v>70212.90129246721</v>
+        <v>69571.66317869173</v>
       </c>
       <c r="M6" t="n">
-        <v>-17022.61426417867</v>
+        <v>-17663.85237795397</v>
       </c>
       <c r="N6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="O6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179385</v>
       </c>
       <c r="P6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179394</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480486</v>
+        <v>94.25048217480528</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26761,25 +26761,25 @@
         <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26795,16 +26795,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619341</v>
@@ -26813,25 +26813,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="L4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="M4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="N4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="L4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480487</v>
+        <v>94.25048217480527</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184163</v>
+        <v>372.4514459184159</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424612</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529841</v>
+        <v>0.3788964107529858</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623999</v>
+        <v>3.880372866624016</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555443</v>
+        <v>14.6074038755545</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214611</v>
+        <v>32.15835924214625</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931993</v>
+        <v>48.19704430932016</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990158</v>
+        <v>59.79269533990185</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462996</v>
+        <v>66.53089438463026</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168189</v>
+        <v>67.60743381168218</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725689</v>
+        <v>63.83978262725719</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679259</v>
+        <v>54.48577748679284</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670134</v>
+        <v>40.91654977670152</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196226</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033632</v>
+        <v>8.634101960033671</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071189</v>
+        <v>1.658619038071196</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023872</v>
+        <v>0.03031171286023886</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225052</v>
+        <v>0.2027274522250529</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857739</v>
+        <v>1.957920393857748</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888852</v>
+        <v>6.979870613888883</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780634</v>
+        <v>19.15329845780643</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688482</v>
+        <v>32.73603775688497</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211052</v>
+        <v>44.01764264211072</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526864</v>
+        <v>51.36651278526887</v>
       </c>
       <c r="N9" t="n">
-        <v>52.7260315328656</v>
+        <v>52.72603153286584</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619471</v>
+        <v>48.23401798619493</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006278</v>
+        <v>38.71205182006295</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542956</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779753</v>
+        <v>12.58688514779759</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531116</v>
+        <v>3.765573509531133</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457135</v>
+        <v>0.8171338973457172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322711</v>
+        <v>0.01333733238322717</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889924</v>
+        <v>0.1699598858889931</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540315</v>
+        <v>1.511097894540322</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643517</v>
+        <v>5.11115729564354</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235176</v>
+        <v>12.01616393235181</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055747</v>
+        <v>19.74624856055756</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207801</v>
+        <v>25.26839976207813</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6419846580354</v>
+        <v>26.64198465803553</v>
       </c>
       <c r="N10" t="n">
-        <v>26.008497810631</v>
+        <v>26.00849781063112</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547322</v>
+        <v>24.02305732547333</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333776</v>
+        <v>20.55587565333785</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839553</v>
+        <v>14.2318228083956</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517781</v>
+        <v>7.642014505517816</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408362</v>
+        <v>2.961937284083634</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075126</v>
+        <v>0.7261922397075159</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308685</v>
+        <v>0.009270539230308726</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,25 +31995,25 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -32022,13 +32022,13 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699034</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562338</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642303</v>
+        <v>14.1947823964231</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214612</v>
+        <v>32.15835924214625</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931993</v>
+        <v>48.19704430932016</v>
       </c>
       <c r="L8" t="n">
-        <v>59.7926953399016</v>
+        <v>59.79269533990191</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462993</v>
+        <v>66.53089438463027</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168189</v>
+        <v>67.60743381168217</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.83978262725719</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679259</v>
+        <v>54.48577748679287</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670134</v>
+        <v>40.91654977670152</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888853</v>
+        <v>6.979870613888881</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780634</v>
+        <v>19.15329845780643</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688482</v>
+        <v>32.73603775688497</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211052</v>
+        <v>44.01764264211072</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526864</v>
+        <v>51.36651278526887</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286559</v>
+        <v>52.72603153286585</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619469</v>
+        <v>48.23401798619494</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>12.5868851477976</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>12.01616393235181</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055749</v>
+        <v>19.74624856055756</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207813</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803543</v>
+        <v>26.64198465803553</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063101</v>
+        <v>26.00849781063113</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547325</v>
+        <v>24.02305732547333</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>20.55587565333786</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,7 +35661,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785894</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562342</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116991</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994726</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548409</v>
@@ -36436,19 +36436,19 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -36527,7 +36527,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
@@ -36539,7 +36539,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916792</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36992,7 +36992,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37074,7 +37074,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37548,7 +37548,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,13 +37794,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37940,7 +37940,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38177,7 +38177,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
